--- a/medicine/Pharmacie/Nicolas_Jean-Baptiste_Gaston_Guibourt/Nicolas_Jean-Baptiste_Gaston_Guibourt.xlsx
+++ b/medicine/Pharmacie/Nicolas_Jean-Baptiste_Gaston_Guibourt/Nicolas_Jean-Baptiste_Gaston_Guibourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas-Jean-Baptiste-Gaston Guibourt est un pharmacien français né à Paris le 2 juillet 1790, et, mort le 22 août 1867 dans le 5e arrondissement de cette ville[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas-Jean-Baptiste-Gaston Guibourt est un pharmacien français né à Paris le 2 juillet 1790, et, mort le 22 août 1867 dans le 5e arrondissement de cette ville.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas-Jean-Baptiste-Gaston Guibourt est né et mort à Paris (1790-1867).
 Reçu pharmacien en 1816, il fut nommé membre de l'Académie nationale de médecine en 1824 et professeur de l'École de Pharmacie en 1832.
@@ -543,7 +557,9 @@
           <t>Œuvres principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire abrégée des drogues simples (1820)
 Histoire naturelle des drogues simples (1836)
